--- a/4 Diccionario de Datos/diccionario_de_datos.xlsx
+++ b/4 Diccionario de Datos/diccionario_de_datos.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\GitHub\Base-de-datos-Infraestructura-de-deportes\4 Diccionario de Datos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8FF1965-6B23-464E-B97E-1259E33BF46F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="27255" windowHeight="15060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -187,8 +193,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,12 +211,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -240,9 +252,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -251,13 +264,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -295,7 +316,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -329,6 +350,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -363,9 +385,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -538,500 +561,508 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.85546875" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="3" max="3" width="32.140625" customWidth="1"/>
+    <col min="4" max="4" width="47.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+      <c r="D3" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
+      <c r="D5" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
+      <c r="D8" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
+      <c r="D9" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="D10" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="D12" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="D14" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="D15" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="D16" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="D17" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="D22" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="D23" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D24" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="D24" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="D25" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="D26" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
+      <c r="D30" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D31" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
+      <c r="D31" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D33" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
+      <c r="D33" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D34" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
+      <c r="D34" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="1" t="s">
         <v>55</v>
       </c>
     </row>
